--- a/csv/improvement_quimb.xlsx
+++ b/csv/improvement_quimb.xlsx
@@ -1,157 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanhsuanlin/Desktop/sqd/meeting-notes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F972C-58DF-964A-BB9C-A80E1FB6D720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-38420" yWindow="-1860" windowWidth="34620" windowHeight="22600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="sqd-energy" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Table 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> 6-31g: 1.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> 6-31g: 2.4</t>
-    </r>
-  </si>
-  <si>
     <t>Fe2s2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> ccPVDZ: 1.2:50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> ccPVDZ: 1.2:200</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> ccPVDZ: 2.3</t>
-    </r>
   </si>
   <si>
     <t>init</t>
@@ -180,15 +69,162 @@
   <si>
     <t>Optimize/truncated</t>
   </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6-31g: 1.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6-31g: 2.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ccPVDZ: 1.2:50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ccPVDZ: 1.2:200</t>
+    </r>
+  </si>
+  <si>
+    <t>init (exact)</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ccPVDZ: 2.4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Init function evaluation </t>
+  </si>
+  <si>
+    <t>N2 6-31g: 1.2</t>
+  </si>
+  <si>
+    <t>N2 6-31g: 2.4</t>
+  </si>
+  <si>
+    <t>N2 ccPVDZ: 2.4</t>
+  </si>
+  <si>
+    <t>N2 ccPVDZ: 1.2</t>
+  </si>
+  <si>
+    <t>runs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final function evaluation </t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>subspace</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -198,33 +234,32 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times Roman"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color indexed="8"/>
-      <name val="Times Roman"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="13"/>
-      <name val="Menlo Regular"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -247,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -276,36 +311,6 @@
       </left>
       <right style="thin">
         <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -360,72 +365,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,27 +510,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -654,7 +787,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -672,7 +805,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -701,7 +834,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,7 +859,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -751,7 +884,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,7 +909,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +934,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +959,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +984,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +1009,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,7 +1034,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,9 +1047,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -933,7 +1072,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -951,7 +1090,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +1115,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1140,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1165,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +1190,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1215,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1101,7 +1240,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1265,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1290,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,7 +1315,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,9 +1328,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1205,7 +1350,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1223,7 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,7 +1397,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1422,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1447,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1472,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1497,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1377,7 +1522,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1402,7 +1547,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1572,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,7 +1597,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,452 +1610,1001 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="1" customWidth="1"/>
+    <col min="2" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="36.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="17">
+        <v>-109.0839</v>
+      </c>
+      <c r="C3" s="18">
+        <v>-108.76519999999999</v>
+      </c>
+      <c r="D3" s="18">
+        <v>-115.99809999999999</v>
+      </c>
+      <c r="E3" s="18">
+        <v>-109.2325</v>
+      </c>
+      <c r="F3" s="19">
+        <v>-109.2325</v>
+      </c>
+      <c r="G3" s="18">
+        <v>-108.8182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="B4" s="9">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-115.8000016374</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="B5" s="20">
+        <v>-109.0943</v>
+      </c>
+      <c r="C5" s="21">
+        <v>-108.8274</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-116.375903944284</v>
+      </c>
+      <c r="E5" s="21">
+        <v>-109.23650000000001</v>
+      </c>
+      <c r="F5" s="22">
+        <v>-109.241230223594</v>
+      </c>
+      <c r="G5" s="21">
+        <f>-108.8973591308</f>
+        <v>-108.8973591308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="B6" s="2">
+        <v>-109.0929</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-108.824</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
+        <v>-109.2359</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-109.238651128857</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="B7" s="8">
+        <f>B5/B3</f>
+        <v>1.0000953394588936</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C5/C3</f>
+        <v>1.000571874092081</v>
+      </c>
+      <c r="D7" s="4">
+        <f>D5/D3</f>
+        <v>1.0032569839013226</v>
+      </c>
+      <c r="E7" s="4">
+        <f>E5/E3</f>
+        <v>1.0000366191380772</v>
+      </c>
+      <c r="F7" s="4">
+        <f>F5/F3</f>
+        <v>1.000079923315808</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="23.15" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="B9" s="8">
+        <v>-108.943862504089</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-108.677515318486</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-114.76342723370701</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-109.06721118367901</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-109.06721118367901</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-108.774586965086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
-        <v>-109.0839</v>
-      </c>
-      <c r="C3" s="7">
-        <v>-108.7652</v>
-      </c>
-      <c r="D3" s="7">
-        <v>-115.9981</v>
-      </c>
-      <c r="E3" s="7">
-        <v>-109.2325</v>
-      </c>
-      <c r="F3" s="8">
-        <v>-109.2325</v>
-      </c>
-      <c r="G3" s="7">
-        <v>-108.8182</v>
-      </c>
-    </row>
-    <row r="4" ht="22.95" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="B11" s="8">
+        <v>-109.09813082003301</v>
+      </c>
+      <c r="C11" s="15">
+        <v>-108.842683477278</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-116.6056091</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-109.263243833864</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-109.263243833864</v>
+      </c>
+      <c r="G11" s="4">
+        <f>G9-0.185347926519896</f>
+        <v>-108.9599348916059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
-        <v>-109.0943</v>
-      </c>
-      <c r="C4" s="11">
-        <v>-108.8274</v>
-      </c>
-      <c r="D4" s="11">
-        <v>-116.3573</v>
-      </c>
-      <c r="E4" s="11">
-        <v>-109.2365</v>
-      </c>
-      <c r="F4" s="12">
-        <v>-109.241230223594</v>
-      </c>
-      <c r="G4" s="11">
-        <v>-108.8951</v>
-      </c>
-    </row>
-    <row r="5" ht="22.95" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
+        <f>B3-B11</f>
+        <v>1.4230820033006353E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C3-C11</f>
+        <v>7.7483477278008195E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f>D3-D11</f>
+        <v>0.60750910000000147</v>
+      </c>
+      <c r="E13" s="4">
+        <f>E3-E11</f>
+        <v>3.0743833863994041E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f>F3-F11</f>
+        <v>3.0743833863994041E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <f>G3-G11</f>
+        <v>0.1417348916058927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" ref="B14:G14" si="0">B5-B11</f>
+        <v>3.8308200330021691E-3</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5283477278003943E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22970515571599037</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6743833863989153E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2013610269993933E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2575760805898994E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" ref="B15:G15" si="1">B9-B11</f>
+        <v>0.1542683159440088</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16516815879199953</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8421818662929894</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19603265018498917</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19603265018498917</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18534792651989562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10">
-        <v>-109.0929</v>
-      </c>
-      <c r="C5" s="11">
-        <v>-108.824</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14">
-        <v>-109.2359</v>
-      </c>
-      <c r="F5" s="12">
-        <v>-109.238651128857</v>
-      </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="B16" s="8">
+        <f t="shared" ref="B16:G16" si="2">B13/B14</f>
+        <v>3.7148234347761373</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="2"/>
+        <v>5.0697544720089844</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6447342816768615</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1495671869765438</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3965829996499941</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2650126787197031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16">
-        <f>B4/B3</f>
-        <v>1.00009533945889</v>
-      </c>
-      <c r="C6" s="12">
-        <f>C4/C3</f>
-        <v>1.00057187409208</v>
-      </c>
-      <c r="D6" s="12">
-        <f>D4/D3</f>
-        <v>1.00309660244435</v>
-      </c>
-      <c r="E6" s="12">
-        <f>E4/E3</f>
-        <v>1.00003661913808</v>
-      </c>
-      <c r="F6" s="12">
-        <f>F4/F3</f>
-        <v>1.00007992331581</v>
-      </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B8" s="16">
-        <v>-108.943862504089</v>
-      </c>
-      <c r="C8" s="12">
-        <v>-108.677515318486</v>
-      </c>
-      <c r="D8" s="12">
-        <v>-114.763427233707</v>
-      </c>
-      <c r="E8" s="12">
-        <v>-109.067211183679</v>
-      </c>
-      <c r="F8" s="12">
-        <v>-109.067211183679</v>
-      </c>
-      <c r="G8" s="12">
-        <v>-108.774586965086</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16">
-        <v>-109.098130820033</v>
-      </c>
-      <c r="C10" s="19">
-        <v>-108.842683477278</v>
-      </c>
-      <c r="D10" s="12">
-        <v>-116.6056091</v>
-      </c>
-      <c r="E10" s="12">
-        <v>-109.263243833864</v>
-      </c>
-      <c r="F10" s="12">
-        <v>-109.263243833864</v>
-      </c>
-      <c r="G10" s="12">
-        <f>G8-0.185347926519896</f>
-        <v>-108.959934891606</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" s="16">
-        <f>B3-B10</f>
-        <v>0.014230820033</v>
-      </c>
-      <c r="C12" s="12">
-        <f>C3-C10</f>
-        <v>0.07748347727799999</v>
-      </c>
-      <c r="D12" s="12">
-        <f>D3-D10</f>
-        <v>0.6075091</v>
-      </c>
-      <c r="E12" s="12">
-        <f>E3-E10</f>
-        <v>0.030743833864</v>
-      </c>
-      <c r="F12" s="12">
-        <f>F3-F10</f>
-        <v>0.030743833864</v>
-      </c>
-      <c r="G12" s="12">
-        <f>G3-G10</f>
-        <v>0.141734891606</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="B13" s="16">
-        <f>B4-B10</f>
-        <v>0.003830820033</v>
-      </c>
-      <c r="C13" s="12">
-        <f>C4-C10</f>
-        <v>0.015283477278</v>
-      </c>
-      <c r="D13" s="12">
-        <f>D4-D10</f>
-        <v>0.2483091</v>
-      </c>
-      <c r="E13" s="12">
-        <f>E4-E10</f>
-        <v>0.026743833864</v>
-      </c>
-      <c r="F13" s="12">
-        <f>F4-F10</f>
-        <v>0.022013610270</v>
-      </c>
-      <c r="G13" s="12">
-        <f>G4-G10</f>
-        <v>0.06483489160600001</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16">
-        <f>B8-B10</f>
-        <v>0.154268315944</v>
-      </c>
-      <c r="C14" s="12">
-        <f>C8-C10</f>
-        <v>0.165168158792</v>
-      </c>
-      <c r="D14" s="12">
-        <f>D8-D10</f>
-        <v>1.842181866293</v>
-      </c>
-      <c r="E14" s="12">
-        <f>E8-E10</f>
-        <v>0.196032650185</v>
-      </c>
-      <c r="F14" s="12">
-        <f>F8-F10</f>
-        <v>0.196032650185</v>
-      </c>
-      <c r="G14" s="12">
-        <f>G8-G10</f>
-        <v>0.185347926520</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16">
-        <f>B12/B13</f>
-        <v>3.71482343477658</v>
-      </c>
-      <c r="C15" s="12">
-        <f>C12/C13</f>
-        <v>5.06975447200976</v>
-      </c>
-      <c r="D15" s="12">
-        <f>D12/D13</f>
-        <v>2.4465841163292</v>
-      </c>
-      <c r="E15" s="12">
-        <f>E12/E13</f>
-        <v>1.1495671869763</v>
-      </c>
-      <c r="F15" s="12">
-        <f>F12/F13</f>
-        <v>1.39658299964988</v>
-      </c>
-      <c r="G15" s="12">
-        <f>G12/G13</f>
-        <v>2.18608974419699</v>
-      </c>
-    </row>
-    <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16">
-        <f>B14/B13</f>
-        <v>40.2703114777201</v>
-      </c>
-      <c r="C16" s="12">
-        <f>C14/C13</f>
-        <v>10.8069751266457</v>
-      </c>
-      <c r="D16" s="12">
-        <f>D14/D13</f>
-        <v>7.41890597764238</v>
-      </c>
-      <c r="E16" s="12">
-        <f>E14/E13</f>
-        <v>7.33001301091989</v>
-      </c>
-      <c r="F16" s="12">
-        <f>F14/F13</f>
-        <v>8.90506590153238</v>
-      </c>
-      <c r="G16" s="12">
-        <f>G14/G13</f>
-        <v>2.85876820225681</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="12">
-        <v>0.133656055905803</v>
-      </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="12">
-        <v>0.0112960940117262</v>
-      </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="12">
-        <f>F20/F21</f>
-        <v>11.832059450555</v>
-      </c>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="B17" s="8">
+        <f t="shared" ref="B17:G17" si="3">B15/B14</f>
+        <v>40.2703114776996</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="3"/>
+        <v>10.806975126642834</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="3"/>
+        <v>8.0197671687033463</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>7.3300130109224595</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="3"/>
+        <v>8.905065901534341</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9619763968163042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D3157-8E17-0641-B9E7-515D072A5E18}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C4">
+        <f>SQRT(11881)</f>
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E4" s="23">
+        <f>SQRT(10201)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C13" si="0">SQRT(11881)</f>
+        <v>109</v>
+      </c>
+      <c r="E5" s="23">
+        <f t="shared" ref="E5:E13" si="1">SQRT(10201)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="23"/>
+      <c r="B22" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>-109.091190683961</v>
+      </c>
+      <c r="C24">
+        <v>975</v>
+      </c>
+      <c r="D24">
+        <v>-108.81792307654599</v>
+      </c>
+      <c r="E24">
+        <v>1375</v>
+      </c>
+      <c r="H24">
+        <v>-109.232120428781</v>
+      </c>
+      <c r="I24">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>-109.091154920614</v>
+      </c>
+      <c r="C25">
+        <v>967</v>
+      </c>
+      <c r="D25">
+        <v>-108.821428670229</v>
+      </c>
+      <c r="E25">
+        <v>1359</v>
+      </c>
+      <c r="H25">
+        <v>-109.232302921486</v>
+      </c>
+      <c r="I25">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>-109.092875542413</v>
+      </c>
+      <c r="C26">
+        <v>976</v>
+      </c>
+      <c r="D26">
+        <v>-108.820981542702</v>
+      </c>
+      <c r="E26">
+        <v>1409</v>
+      </c>
+      <c r="H26">
+        <v>-109.231181237839</v>
+      </c>
+      <c r="I26">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>-109.09171943843999</v>
+      </c>
+      <c r="C27">
+        <v>971</v>
+      </c>
+      <c r="D27">
+        <v>-108.822267046009</v>
+      </c>
+      <c r="E27">
+        <v>1388</v>
+      </c>
+      <c r="H27">
+        <v>-109.23589212872901</v>
+      </c>
+      <c r="I27">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>-109.09218363717299</v>
+      </c>
+      <c r="C28">
+        <v>991</v>
+      </c>
+      <c r="D28">
+        <v>-108.822405244408</v>
+      </c>
+      <c r="E28">
+        <v>1378</v>
+      </c>
+      <c r="H28">
+        <v>-109.22845923177201</v>
+      </c>
+      <c r="I28">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>-109.09158547141401</v>
+      </c>
+      <c r="C29">
+        <v>1003</v>
+      </c>
+      <c r="D29">
+        <v>-108.82404976394901</v>
+      </c>
+      <c r="E29">
+        <v>1395</v>
+      </c>
+      <c r="H29">
+        <v>-109.23023134429</v>
+      </c>
+      <c r="I29">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>-109.092657781905</v>
+      </c>
+      <c r="C30">
+        <v>981</v>
+      </c>
+      <c r="D30">
+        <v>-108.820402605524</v>
+      </c>
+      <c r="E30">
+        <v>1396</v>
+      </c>
+      <c r="H30">
+        <v>-109.233443053169</v>
+      </c>
+      <c r="I30">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>-109.09272828069</v>
+      </c>
+      <c r="C31">
+        <v>968</v>
+      </c>
+      <c r="D31">
+        <v>-108.82321862425999</v>
+      </c>
+      <c r="E31">
+        <v>1381</v>
+      </c>
+      <c r="H31">
+        <v>-109.233511420033</v>
+      </c>
+      <c r="I31">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>-109.092774453451</v>
+      </c>
+      <c r="C32">
+        <v>1011</v>
+      </c>
+      <c r="D32">
+        <v>-108.823797797555</v>
+      </c>
+      <c r="E32">
+        <v>1439</v>
+      </c>
+      <c r="H32">
+        <v>-109.23048925712401</v>
+      </c>
+      <c r="I32">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>-109.092023836705</v>
+      </c>
+      <c r="C33">
+        <v>989</v>
+      </c>
+      <c r="D33">
+        <v>-108.82285991863</v>
+      </c>
+      <c r="E33">
+        <v>1409</v>
+      </c>
+      <c r="H33">
+        <v>-109.230679934058</v>
+      </c>
+      <c r="I33">
+        <v>1860</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FF5C7E-DB4F-7145-BB48-A37F50D48701}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/csv/improvement_quimb.xlsx
+++ b/csv/improvement_quimb.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanhsuanlin/Desktop/sqd/meeting-notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F972C-58DF-964A-BB9C-A80E1FB6D720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD81D4-0465-0342-A01F-8E9247B166F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38420" yWindow="-1860" windowWidth="34620" windowHeight="22600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32920" windowHeight="20240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="sqd-energy" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
   <si>
     <t>Table 1</t>
   </si>
@@ -211,20 +212,110 @@
     <t>runs</t>
   </si>
   <si>
-    <t xml:space="preserve">Final function evaluation </t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
     <t>subspace</t>
+  </si>
+  <si>
+    <t>Final function evaluation exact</t>
+  </si>
+  <si>
+    <t>N$_2$ / cc-PVDZ</t>
+  </si>
+  <si>
+    <t>N$_2$ / 6-31G</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>\AA</t>
+  </si>
+  <si>
+    <t>Molecule</t>
+  </si>
+  <si>
+    <t>Truncated Operator</t>
+  </si>
+  <si>
+    <t>Compressed Operator</t>
+  </si>
+  <si>
+    <t>Optimized Operator</t>
+  </si>
+  <si>
+    <t>Energy Improvement</t>
+  </si>
+  <si>
+    <t>Ground Energy</t>
+  </si>
+  <si>
+    <t>SQD Energy</t>
+  </si>
+  <si>
+    <t>Final SQD Energy</t>
+  </si>
+  <si>
+    <t>Initial SQD Energy</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>SQD Energy Error</t>
+  </si>
+  <si>
+    <t>Truncated</t>
+  </si>
+  <si>
+    <t>Compressed</t>
+  </si>
+  <si>
+    <t>TN-Optimized</t>
+  </si>
+  <si>
+    <t>Energy Improvement Ratio</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Initial SQD Subspace</t>
+  </si>
+  <si>
+    <t>Final SQD subspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final function evaluation </t>
+  </si>
+  <si>
+    <t>rerun the simulation with the optimization parameters. However, the obtained sqd energy is not consistent with the previous table, because sampling from MPS contains randomness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -261,6 +352,41 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -282,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -417,13 +543,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -472,34 +639,115 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1635,7 +1883,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1646,15 +1894,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -1681,22 +1929,22 @@
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>-109.0839</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>-108.76519999999999</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>-115.99809999999999</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>-109.2325</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>-109.2325</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>-108.8182</v>
       </c>
     </row>
@@ -1710,35 +1958,36 @@
       <c r="C4" s="7">
         <v>-108.765196586824</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="44">
         <v>-115.8000016374</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="46">
+        <v>-109.19297363473</v>
+      </c>
+      <c r="F4" s="45"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>-109.0943</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>-108.8274</v>
       </c>
-      <c r="D5" s="21">
-        <v>-116.375903944284</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="D5" s="20">
+        <v>-116.391890224771</v>
+      </c>
+      <c r="E5" s="20">
         <v>-109.23650000000001</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>-109.241230223594</v>
       </c>
-      <c r="G5" s="21">
-        <f>-108.8973591308</f>
-        <v>-108.8973591308</v>
+      <c r="G5" s="20">
+        <v>-108.901447636678</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.15">
@@ -1758,7 +2007,9 @@
       <c r="F6" s="4">
         <v>-109.238651128857</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>-108.900193963975</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
@@ -1774,7 +2025,7 @@
       </c>
       <c r="D7" s="4">
         <f>D5/D3</f>
-        <v>1.0032569839013226</v>
+        <v>1.0033947989214567</v>
       </c>
       <c r="E7" s="4">
         <f>E5/E3</f>
@@ -1784,7 +2035,10 @@
         <f>F5/F3</f>
         <v>1.000079923315808</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="4">
+        <f>G5/G3</f>
+        <v>1.0007650157480825</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -1867,27 +2121,27 @@
         <v>2</v>
       </c>
       <c r="B13" s="8">
-        <f>B3-B11</f>
+        <f t="shared" ref="B13:G13" si="0">B3-B11</f>
         <v>1.4230820033006353E-2</v>
       </c>
       <c r="C13" s="4">
-        <f>C3-C11</f>
+        <f t="shared" si="0"/>
         <v>7.7483477278008195E-2</v>
       </c>
       <c r="D13" s="4">
-        <f>D3-D11</f>
+        <f t="shared" si="0"/>
         <v>0.60750910000000147</v>
       </c>
       <c r="E13" s="4">
-        <f>E3-E11</f>
+        <f t="shared" si="0"/>
         <v>3.0743833863994041E-2</v>
       </c>
       <c r="F13" s="4">
-        <f>F3-F11</f>
+        <f t="shared" si="0"/>
         <v>3.0743833863994041E-2</v>
       </c>
       <c r="G13" s="4">
-        <f>G3-G11</f>
+        <f t="shared" si="0"/>
         <v>0.1417348916058927</v>
       </c>
     </row>
@@ -1896,28 +2150,28 @@
         <v>3</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" ref="B14:G14" si="0">B5-B11</f>
+        <f t="shared" ref="B14:G14" si="1">B5-B11</f>
         <v>3.8308200330021691E-3</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5283477278003943E-2</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.22970515571599037</v>
+        <f t="shared" si="1"/>
+        <v>0.21371887522899158</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6743833863989153E-2</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2013610269993933E-2</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>6.2575760805898994E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.848725492789697E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1925,27 +2179,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" ref="B15:G15" si="1">B9-B11</f>
+        <f t="shared" ref="B15:G15" si="2">B9-B11</f>
         <v>0.1542683159440088</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16516815879199953</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8421818662929894</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19603265018498917</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19603265018498917</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18534792651989562</v>
       </c>
     </row>
@@ -1954,28 +2208,28 @@
         <v>9</v>
       </c>
       <c r="B16" s="8">
-        <f t="shared" ref="B16:G16" si="2">B13/B14</f>
+        <f t="shared" ref="B16:G16" si="3">B13/B14</f>
         <v>3.7148234347761373</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0697544720089844</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="2"/>
-        <v>2.6447342816768615</v>
+        <f t="shared" si="3"/>
+        <v>2.8425617500984823</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1495671869765438</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3965829996499941</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="2"/>
-        <v>2.2650126787197031</v>
+        <f t="shared" si="3"/>
+        <v>2.4233466210822057</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -1983,28 +2237,28 @@
         <v>10</v>
       </c>
       <c r="B17" s="8">
-        <f t="shared" ref="B17:G17" si="3">B15/B14</f>
+        <f t="shared" ref="B17:G17" si="4">B15/B14</f>
         <v>40.2703114776996</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.806975126642834</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="3"/>
-        <v>8.0197671687033463</v>
+        <f t="shared" si="4"/>
+        <v>8.6196498288658976</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3300130109224595</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.905065901534341</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="3"/>
-        <v>2.9619763968163042</v>
+        <f t="shared" si="4"/>
+        <v>3.1690310435733795</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2084,64 +2338,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D3157-8E17-0641-B9E7-515D072A5E18}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="F3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2155,12 +2425,31 @@
       <c r="D4">
         <v>-108.765196586824</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f>SQRT(10201)</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>-115.80001637482999</v>
+      </c>
+      <c r="G4">
+        <v>543</v>
+      </c>
+      <c r="H4">
+        <v>-109.19297363473</v>
+      </c>
+      <c r="I4">
+        <v>202</v>
+      </c>
+      <c r="J4" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K4">
+        <f>SQRT(63504)</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2171,12 +2460,34 @@
         <f t="shared" ref="C5:C13" si="0">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="E5" s="23">
+      <c r="D5">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E5" s="22">
         <f t="shared" ref="E5:E13" si="1">SQRT(10201)</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>-115.800016374957</v>
+      </c>
+      <c r="G5">
+        <v>543</v>
+      </c>
+      <c r="H5">
+        <v>-109.192973634742</v>
+      </c>
+      <c r="I5">
+        <v>202</v>
+      </c>
+      <c r="J5" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K13" si="2">SQRT(63504)</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2187,12 +2498,34 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="E6" s="23">
+      <c r="D6">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E6" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>-115.800016374867</v>
+      </c>
+      <c r="G6">
+        <v>543</v>
+      </c>
+      <c r="H6">
+        <v>-109.192973634743</v>
+      </c>
+      <c r="I6">
+        <v>202</v>
+      </c>
+      <c r="J6" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2203,12 +2536,34 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="E7" s="23">
+      <c r="D7">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E7" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>-115.800016374961</v>
+      </c>
+      <c r="G7">
+        <v>543</v>
+      </c>
+      <c r="H7">
+        <v>-109.19297363474401</v>
+      </c>
+      <c r="I7">
+        <v>202</v>
+      </c>
+      <c r="J7" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2219,12 +2574,34 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="E8" s="23">
+      <c r="D8">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E8" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>-115.80001637487101</v>
+      </c>
+      <c r="G8">
+        <v>543</v>
+      </c>
+      <c r="H8">
+        <v>-109.192973634746</v>
+      </c>
+      <c r="I8">
+        <v>202</v>
+      </c>
+      <c r="J8" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2235,12 +2612,34 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="E9" s="23">
+      <c r="D9">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E9" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>-115.80001637499301</v>
+      </c>
+      <c r="G9">
+        <v>543</v>
+      </c>
+      <c r="H9">
+        <v>-109.19297363475999</v>
+      </c>
+      <c r="I9">
+        <v>202</v>
+      </c>
+      <c r="J9" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2251,12 +2650,34 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="E10" s="23">
+      <c r="D10">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E10" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>-115.80001637486301</v>
+      </c>
+      <c r="G10">
+        <v>543</v>
+      </c>
+      <c r="H10">
+        <v>-109.192973634746</v>
+      </c>
+      <c r="I10">
+        <v>202</v>
+      </c>
+      <c r="J10" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2267,12 +2688,34 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="E11" s="23">
+      <c r="D11">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E11" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>-115.80001637492499</v>
+      </c>
+      <c r="G11">
+        <v>543</v>
+      </c>
+      <c r="H11">
+        <v>-109.192973634745</v>
+      </c>
+      <c r="I11">
+        <v>202</v>
+      </c>
+      <c r="J11" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2283,12 +2726,34 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="E12" s="23">
+      <c r="D12">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E12" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <v>-115.80001637481099</v>
+      </c>
+      <c r="G12">
+        <v>543</v>
+      </c>
+      <c r="H12">
+        <v>-109.192973634745</v>
+      </c>
+      <c r="I12">
+        <v>202</v>
+      </c>
+      <c r="J12" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2299,65 +2764,227 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="E13" s="23">
+      <c r="D13">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E13" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
+      <c r="F13">
+        <v>-115.800016374709</v>
+      </c>
+      <c r="G13">
+        <v>543</v>
+      </c>
+      <c r="H13">
+        <v>-109.19297363474401</v>
+      </c>
+      <c r="I13">
+        <v>202</v>
+      </c>
+      <c r="J13" s="24">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B4:B13)</f>
+        <v>-109.05447880139101</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14" si="3">AVERAGE(C4:C13)</f>
+        <v>109</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="4">AVERAGE(D4:D13)</f>
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="5">AVERAGE(E4:E13)</f>
+        <v>101</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="6">AVERAGE(F4:F13)</f>
+        <v>-115.80001637487869</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="7">AVERAGE(G4:G13)</f>
+        <v>543</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14" si="8">AVERAGE(H4:H13)</f>
+        <v>-109.1929736347445</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14" si="9">AVERAGE(I4:I13)</f>
+        <v>202</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="10">AVERAGE(J4:J13)</f>
+        <v>-108.79991228764399</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14" si="11">AVERAGE(K4:K13)</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <f>MIN(B4:B13)</f>
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:J15" si="12">MIN(C4:C13)</f>
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="12"/>
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="12"/>
+        <v>101</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="12"/>
+        <v>-115.80001637499301</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="12"/>
+        <v>543</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="12"/>
+        <v>-109.19297363475999</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="12"/>
+        <v>202</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="12"/>
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K15">
+        <f>MIN(K4:K13)</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <f>MAX(B5:B13)</f>
+        <v>-109.054478801391</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:K16" si="13">MAX(C5:C13)</f>
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="13"/>
+        <v>-108.765196586824</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="13"/>
+        <v>101</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="13"/>
+        <v>-115.800016374709</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="13"/>
+        <v>543</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="13"/>
+        <v>-109.192973634742</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="13"/>
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="13"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24" t="s">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2379,8 +3006,14 @@
       <c r="I24">
         <v>1860</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J24">
+        <v>-108.899340296587</v>
+      </c>
+      <c r="K24">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2402,8 +3035,14 @@
       <c r="I25">
         <v>1850</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J25">
+        <v>-108.896383922854</v>
+      </c>
+      <c r="K25">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2425,8 +3064,14 @@
       <c r="I26">
         <v>1886</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J26">
+        <v>-108.898908524635</v>
+      </c>
+      <c r="K26">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2448,8 +3093,14 @@
       <c r="I27">
         <v>1884</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J27">
+        <v>-108.894294751882</v>
+      </c>
+      <c r="K27">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -2471,8 +3122,14 @@
       <c r="I28">
         <v>1842</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J28">
+        <v>-108.900193963975</v>
+      </c>
+      <c r="K28">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2494,8 +3151,14 @@
       <c r="I29">
         <v>1874</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J29">
+        <v>-108.897791096551</v>
+      </c>
+      <c r="K29">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>7</v>
       </c>
@@ -2517,8 +3180,14 @@
       <c r="I30">
         <v>1830</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J30">
+        <v>-108.900018850921</v>
+      </c>
+      <c r="K30">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>8</v>
       </c>
@@ -2540,8 +3209,14 @@
       <c r="I31">
         <v>1838</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J31">
+        <v>-108.896734693056</v>
+      </c>
+      <c r="K31">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>9</v>
       </c>
@@ -2563,8 +3238,14 @@
       <c r="I32">
         <v>1886</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32">
+        <v>-108.895779574736</v>
+      </c>
+      <c r="K32">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>10</v>
       </c>
@@ -2586,6 +3267,541 @@
       <c r="I33">
         <v>1860</v>
       </c>
+      <c r="J33">
+        <v>-108.89532525850601</v>
+      </c>
+      <c r="K33">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(B24:B33)</f>
+        <v>-109.09208940467661</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:K34" si="14">AVERAGE(C24:C33)</f>
+        <v>983.2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="14"/>
+        <v>-108.8219334289812</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="14"/>
+        <v>1392.9</v>
+      </c>
+      <c r="F34" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="14"/>
+        <v>-109.2318310957281</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="14"/>
+        <v>1861</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="14"/>
+        <v>-108.89747709337033</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="14"/>
+        <v>2088.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A35" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <f>MIN(B24:B33)</f>
+        <v>-109.092875542413</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:J35" si="15">MIN(C24:C33)</f>
+        <v>967</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="15"/>
+        <v>-108.82404976394901</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="15"/>
+        <v>1359</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="15"/>
+        <v>-109.23589212872901</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="15"/>
+        <v>1830</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="15"/>
+        <v>-108.900193963975</v>
+      </c>
+      <c r="K35">
+        <f>MIN(K24:K33)</f>
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <f>MAX(B25:B33)</f>
+        <v>-109.091154920614</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:K36" si="16">MAX(C25:C33)</f>
+        <v>1011</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="16"/>
+        <v>-108.820402605524</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="16"/>
+        <v>1439</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="16"/>
+        <v>-109.22845923177201</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="16"/>
+        <v>1886</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="16"/>
+        <v>-108.894294751882</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="16"/>
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="40" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+      <c r="A40" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>-109.093959983766</v>
+      </c>
+      <c r="C43">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>-109.091835173699</v>
+      </c>
+      <c r="C44">
+        <v>915</v>
+      </c>
+      <c r="M44" s="26"/>
+    </row>
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>-109.092917249763</v>
+      </c>
+      <c r="C45">
+        <v>904</v>
+      </c>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>-109.093204583828</v>
+      </c>
+      <c r="C46">
+        <v>909</v>
+      </c>
+      <c r="M46" s="51"/>
+    </row>
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>-109.09200205135799</v>
+      </c>
+      <c r="C47">
+        <v>900</v>
+      </c>
+      <c r="M47" s="51"/>
+    </row>
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>-109.092147556161</v>
+      </c>
+      <c r="C48">
+        <v>904</v>
+      </c>
+      <c r="M48" s="51"/>
+    </row>
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>-109.09285520616901</v>
+      </c>
+      <c r="C49">
+        <v>900</v>
+      </c>
+      <c r="M49" s="51"/>
+    </row>
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>-109.09216294333</v>
+      </c>
+      <c r="C50">
+        <v>912</v>
+      </c>
+      <c r="M50" s="51"/>
+    </row>
+    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>-109.09268157545399</v>
+      </c>
+      <c r="C51">
+        <v>905</v>
+      </c>
+      <c r="M51" s="51"/>
+    </row>
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>-109.09148769173601</v>
+      </c>
+      <c r="C52">
+        <v>925</v>
+      </c>
+      <c r="M52" s="51"/>
+    </row>
+    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A53" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <f>AVERAGE(B43:B52)</f>
+        <v>-109.09252540152639</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53" si="17">AVERAGE(C43:C52)</f>
+        <v>909.9</v>
+      </c>
+      <c r="D53" t="e">
+        <f t="shared" ref="D53" si="18">AVERAGE(D43:D52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" ref="E53" si="19">AVERAGE(E43:E52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" ref="F53" si="20">AVERAGE(F43:F52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" t="e">
+        <f t="shared" ref="G53" si="21">AVERAGE(G43:G52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" t="e">
+        <f t="shared" ref="H53" si="22">AVERAGE(H43:H52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" t="e">
+        <f t="shared" ref="I53" si="23">AVERAGE(I43:I52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" t="e">
+        <f t="shared" ref="J53" si="24">AVERAGE(J43:J52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" t="e">
+        <f t="shared" ref="K53" si="25">AVERAGE(K43:K52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" s="51"/>
+    </row>
+    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A54" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <f>MIN(B43:B52)</f>
+        <v>-109.093959983766</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:J54" si="26">MIN(C43:C52)</f>
+        <v>900</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>MIN(K43:K52)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="51"/>
+    </row>
+    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A55" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <f>MAX(B44:B52)</f>
+        <v>-109.09148769173601</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:K55" si="27">MAX(C44:C52)</f>
+        <v>925</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="51"/>
+    </row>
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M56" s="51"/>
+    </row>
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M57" s="51"/>
+    </row>
+    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M58" s="51"/>
+    </row>
+    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M59" s="51"/>
+    </row>
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M60" s="51"/>
+    </row>
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M61" s="51"/>
+    </row>
+    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M62" s="51"/>
+    </row>
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M63" s="51"/>
+    </row>
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="L64" s="51"/>
+    </row>
+    <row r="65" spans="12:12" ht="16" x14ac:dyDescent="0.15">
+      <c r="L65" s="51"/>
+    </row>
+    <row r="66" spans="12:12" ht="16" x14ac:dyDescent="0.15">
+      <c r="L66" s="51"/>
+    </row>
+    <row r="67" spans="12:12" ht="16" x14ac:dyDescent="0.15">
+      <c r="L67" s="51"/>
+    </row>
+    <row r="68" spans="12:12" ht="16" x14ac:dyDescent="0.15">
+      <c r="L68" s="51"/>
+    </row>
+    <row r="69" spans="12:12" ht="16" x14ac:dyDescent="0.15">
+      <c r="L69" s="51"/>
+    </row>
+    <row r="70" spans="12:12" ht="16" x14ac:dyDescent="0.15">
+      <c r="L70" s="51"/>
+    </row>
+    <row r="71" spans="12:12" ht="16" x14ac:dyDescent="0.15">
+      <c r="L71" s="51"/>
+    </row>
+    <row r="72" spans="12:12" ht="16" x14ac:dyDescent="0.15">
+      <c r="L72" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2594,17 +3810,792 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FF5C7E-DB4F-7145-BB48-A37F50D48701}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B2" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="31"/>
+      <c r="B4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="32">
+        <v>-109.0839</v>
+      </c>
+      <c r="D4" s="33">
+        <v>-109.054478801391</v>
+      </c>
+      <c r="E4" s="32">
+        <v>-108.76519999999999</v>
+      </c>
+      <c r="F4" s="33">
+        <v>-108.765196586824</v>
+      </c>
+      <c r="G4" s="32">
+        <v>-109.2325</v>
+      </c>
+      <c r="H4" s="34">
+        <v>-109.19297363473</v>
+      </c>
+      <c r="I4" s="32">
+        <v>-108.8182</v>
+      </c>
+      <c r="J4" s="33">
+        <v>-108.79991228764401</v>
+      </c>
+      <c r="K4" s="32">
+        <v>-115.99809999999999</v>
+      </c>
+      <c r="L4" s="33">
+        <v>-115.8000016374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="32">
+        <v>-109.0929</v>
+      </c>
+      <c r="D5" s="32">
+        <v>-109.0943</v>
+      </c>
+      <c r="E5" s="32">
+        <v>-108.824</v>
+      </c>
+      <c r="F5" s="32">
+        <v>-108.8274</v>
+      </c>
+      <c r="G5" s="35">
+        <v>-109.2359</v>
+      </c>
+      <c r="H5" s="32">
+        <v>-109.23650000000001</v>
+      </c>
+      <c r="I5" s="33">
+        <v>-108.900193963975</v>
+      </c>
+      <c r="J5" s="32">
+        <v>-108.901447636678</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="32">
+        <v>-116.391890224771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="33">
+        <f>C4-C5</f>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="D6" s="33">
+        <f>D4-D5</f>
+        <v>3.9821198609004682E-2</v>
+      </c>
+      <c r="E6" s="33">
+        <f>E4-E5</f>
+        <v>5.880000000000507E-2</v>
+      </c>
+      <c r="F6" s="33">
+        <f>F4-F5</f>
+        <v>6.2203413175993205E-2</v>
+      </c>
+      <c r="G6" s="33">
+        <f>G4-G5</f>
+        <v>3.3999999999991815E-3</v>
+      </c>
+      <c r="H6" s="33">
+        <f>H4-H5</f>
+        <v>4.3526365270011524E-2</v>
+      </c>
+      <c r="I6" s="33">
+        <f>I4-I5</f>
+        <v>8.1993963974994699E-2</v>
+      </c>
+      <c r="J6" s="33">
+        <f>J4-J5</f>
+        <v>0.10153534903399475</v>
+      </c>
+      <c r="K6" s="33">
+        <f>K4-K5</f>
+        <v>-115.99809999999999</v>
+      </c>
+      <c r="L6" s="33">
+        <f>L4-L5</f>
+        <v>0.59188858737100247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="B7" s="28"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="B8" s="28"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B9" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B10" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48">
+        <v>109</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48">
+        <v>101</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="49">
+        <v>202</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48">
+        <v>252</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="47">
+        <v>976</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47">
+        <v>1395</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="50">
+        <v>1884</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48">
+        <v>2136</v>
+      </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="47"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="B14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="B15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="B16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="20" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF8EEA8-640C-FD40-83A7-5AB64B199225}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="31"/>
+      <c r="P1" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.15">
+      <c r="A2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="J2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="33">
+        <v>-109.09813082003301</v>
+      </c>
+      <c r="D3" s="36">
+        <v>-108.842683477278</v>
+      </c>
+      <c r="E3" s="33">
+        <v>-109.263243833864</v>
+      </c>
+      <c r="F3" s="37">
+        <v>-108.9599348916059</v>
+      </c>
+      <c r="G3" s="33">
+        <v>-116.6056091</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="33">
+        <v>-109.09813082003301</v>
+      </c>
+      <c r="M3" s="36">
+        <v>-108.842683477278</v>
+      </c>
+      <c r="N3" s="33">
+        <v>-109.263243833864</v>
+      </c>
+      <c r="O3" s="37">
+        <v>-108.9599348916059</v>
+      </c>
+      <c r="P3" s="33">
+        <v>-116.6056091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="38" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="33">
+        <v>-108.943862504089</v>
+      </c>
+      <c r="D4" s="33">
+        <v>-108.677515318486</v>
+      </c>
+      <c r="E4" s="33">
+        <v>-109.06721118367901</v>
+      </c>
+      <c r="F4" s="33">
+        <v>-108.774586965086</v>
+      </c>
+      <c r="G4" s="33">
+        <v>-114.76342723370701</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="33">
+        <f>C4-C3</f>
+        <v>0.1542683159440088</v>
+      </c>
+      <c r="M4" s="33">
+        <f t="shared" ref="M4:P4" si="0">D4-D3</f>
+        <v>0.16516815879199953</v>
+      </c>
+      <c r="N4" s="33">
+        <f t="shared" si="0"/>
+        <v>0.19603265018498917</v>
+      </c>
+      <c r="O4" s="33">
+        <f t="shared" si="0"/>
+        <v>0.18534792651989562</v>
+      </c>
+      <c r="P4" s="33">
+        <f t="shared" si="0"/>
+        <v>1.8421818662929894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="38" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="32">
+        <v>-109.0839</v>
+      </c>
+      <c r="D5" s="32">
+        <v>-108.76519999999999</v>
+      </c>
+      <c r="E5" s="32">
+        <v>-109.2325</v>
+      </c>
+      <c r="F5" s="32">
+        <v>-108.8182</v>
+      </c>
+      <c r="G5" s="32">
+        <v>-115.99809999999999</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="32">
+        <f>C5-C3</f>
+        <v>1.4230820033006353E-2</v>
+      </c>
+      <c r="M5" s="32">
+        <f t="shared" ref="M5:P5" si="1">D5-D3</f>
+        <v>7.7483477278008195E-2</v>
+      </c>
+      <c r="N5" s="32">
+        <f t="shared" si="1"/>
+        <v>3.0743833863994041E-2</v>
+      </c>
+      <c r="O5" s="32">
+        <f t="shared" si="1"/>
+        <v>0.1417348916058927</v>
+      </c>
+      <c r="P5" s="32">
+        <f t="shared" si="1"/>
+        <v>0.60750910000000147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32">
+        <v>-109.0929</v>
+      </c>
+      <c r="D6" s="32">
+        <v>-108.824</v>
+      </c>
+      <c r="E6" s="35">
+        <v>-109.2359</v>
+      </c>
+      <c r="F6" s="33">
+        <v>-108.900193963975</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="32">
+        <f>C6-C3</f>
+        <v>5.2308200330060117E-3</v>
+      </c>
+      <c r="M6" s="32">
+        <f t="shared" ref="M6:P6" si="2">D6-D3</f>
+        <v>1.8683477278003124E-2</v>
+      </c>
+      <c r="N6" s="32">
+        <f t="shared" si="2"/>
+        <v>2.734383386399486E-2</v>
+      </c>
+      <c r="O6" s="32">
+        <f t="shared" si="2"/>
+        <v>5.9740927630898E-2</v>
+      </c>
+      <c r="P6" s="32">
+        <f t="shared" si="2"/>
+        <v>116.6056091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="33">
+        <f>C5-C6</f>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="D7" s="33">
+        <f>D5-D6</f>
+        <v>5.880000000000507E-2</v>
+      </c>
+      <c r="E7" s="33">
+        <f>E5-E6</f>
+        <v>3.3999999999991815E-3</v>
+      </c>
+      <c r="F7" s="33">
+        <f>F5-F6</f>
+        <v>8.1993963974994699E-2</v>
+      </c>
+      <c r="G7" s="33">
+        <f>G5-G6</f>
+        <v>-115.99809999999999</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="33">
+        <f>L4/L6</f>
+        <v>29.492185731986453</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" ref="M7:P7" si="3">M4/M6</f>
+        <v>8.8403328959785892</v>
+      </c>
+      <c r="N7" s="33">
+        <f t="shared" si="3"/>
+        <v>7.1691720758703195</v>
+      </c>
+      <c r="O7" s="33">
+        <f t="shared" si="3"/>
+        <v>3.1025284318490178</v>
+      </c>
+      <c r="P7" s="33">
+        <f t="shared" si="3"/>
+        <v>1.5798398383332912E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/csv/improvement_quimb.xlsx
+++ b/csv/improvement_quimb.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanhsuanlin/Desktop/sqd/meeting-notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD81D4-0465-0342-A01F-8E9247B166F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17A4E8-1E65-BB4C-912F-FE82E5CD3FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32920" windowHeight="20240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32920" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="sqd-energy" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="sqd-energy" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,162 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
   <si>
     <t>Fe2s2</t>
-  </si>
-  <si>
-    <t>init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimized </t>
-  </si>
-  <si>
-    <t>Optimized exact</t>
-  </si>
-  <si>
-    <t>Optimize/init</t>
-  </si>
-  <si>
-    <t>truncated</t>
-  </si>
-  <si>
-    <t>Ground truth</t>
-  </si>
-  <si>
-    <t>Err</t>
-  </si>
-  <si>
-    <t>Init/optimize</t>
-  </si>
-  <si>
-    <t>Optimize/truncated</t>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 6-31g: 1.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 6-31g: 2.4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ccPVDZ: 1.2:50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ccPVDZ: 1.2:200</t>
-    </r>
-  </si>
-  <si>
-    <t>init (exact)</t>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ccPVDZ: 2.4</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Init function evaluation </t>
@@ -313,28 +159,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -349,12 +182,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -388,27 +215,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -427,159 +242,6 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
@@ -590,165 +252,90 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1876,472 +1463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="16">
-        <v>-109.0839</v>
-      </c>
-      <c r="C3" s="17">
-        <v>-108.76519999999999</v>
-      </c>
-      <c r="D3" s="17">
-        <v>-115.99809999999999</v>
-      </c>
-      <c r="E3" s="17">
-        <v>-109.2325</v>
-      </c>
-      <c r="F3" s="18">
-        <v>-109.2325</v>
-      </c>
-      <c r="G3" s="17">
-        <v>-108.8182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <v>-109.054478801391</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-108.765196586824</v>
-      </c>
-      <c r="D4" s="44">
-        <v>-115.8000016374</v>
-      </c>
-      <c r="E4" s="46">
-        <v>-109.19297363473</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19">
-        <v>-109.0943</v>
-      </c>
-      <c r="C5" s="20">
-        <v>-108.8274</v>
-      </c>
-      <c r="D5" s="20">
-        <v>-116.391890224771</v>
-      </c>
-      <c r="E5" s="20">
-        <v>-109.23650000000001</v>
-      </c>
-      <c r="F5" s="21">
-        <v>-109.241230223594</v>
-      </c>
-      <c r="G5" s="20">
-        <v>-108.901447636678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-109.0929</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-108.824</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6">
-        <v>-109.2359</v>
-      </c>
-      <c r="F6" s="4">
-        <v>-109.238651128857</v>
-      </c>
-      <c r="G6" s="7">
-        <v>-108.900193963975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <f>B5/B3</f>
-        <v>1.0000953394588936</v>
-      </c>
-      <c r="C7" s="4">
-        <f>C5/C3</f>
-        <v>1.000571874092081</v>
-      </c>
-      <c r="D7" s="4">
-        <f>D5/D3</f>
-        <v>1.0033947989214567</v>
-      </c>
-      <c r="E7" s="4">
-        <f>E5/E3</f>
-        <v>1.0000366191380772</v>
-      </c>
-      <c r="F7" s="4">
-        <f>F5/F3</f>
-        <v>1.000079923315808</v>
-      </c>
-      <c r="G7" s="4">
-        <f>G5/G3</f>
-        <v>1.0007650157480825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8">
-        <v>-108.943862504089</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-108.677515318486</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-114.76342723370701</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-109.06721118367901</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-109.06721118367901</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-108.774586965086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <v>-109.09813082003301</v>
-      </c>
-      <c r="C11" s="15">
-        <v>-108.842683477278</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-116.6056091</v>
-      </c>
-      <c r="E11" s="4">
-        <v>-109.263243833864</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-109.263243833864</v>
-      </c>
-      <c r="G11" s="4">
-        <f>G9-0.185347926519896</f>
-        <v>-108.9599348916059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8">
-        <f t="shared" ref="B13:G13" si="0">B3-B11</f>
-        <v>1.4230820033006353E-2</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.7483477278008195E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.60750910000000147</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0743833863994041E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0743833863994041E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1417348916058927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8">
-        <f t="shared" ref="B14:G14" si="1">B5-B11</f>
-        <v>3.8308200330021691E-3</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>1.5283477278003943E-2</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.21371887522899158</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>2.6743833863989153E-2</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>2.2013610269993933E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>5.848725492789697E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8">
-        <f t="shared" ref="B15:G15" si="2">B9-B11</f>
-        <v>0.1542683159440088</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.16516815879199953</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="2"/>
-        <v>1.8421818662929894</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.19603265018498917</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.19603265018498917</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.18534792651989562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8">
-        <f t="shared" ref="B16:G16" si="3">B13/B14</f>
-        <v>3.7148234347761373</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="3"/>
-        <v>5.0697544720089844</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="3"/>
-        <v>2.8425617500984823</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="3"/>
-        <v>1.1495671869765438</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3965829996499941</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="3"/>
-        <v>2.4233466210822057</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="8">
-        <f t="shared" ref="B17:G17" si="4">B15/B14</f>
-        <v>40.2703114776996</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="4"/>
-        <v>10.806975126642834</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="4"/>
-        <v>8.6196498288658976</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="4"/>
-        <v>7.3300130109224595</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="4"/>
-        <v>8.905065901534341</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="4"/>
-        <v>3.1690310435733795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D3157-8E17-0641-B9E7-515D072A5E18}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2351,64 +1477,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>17</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>24</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -2425,7 +1551,7 @@
       <c r="D4">
         <v>-108.765196586824</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="1">
         <f>SQRT(10201)</f>
         <v>101</v>
       </c>
@@ -2441,7 +1567,7 @@
       <c r="I4">
         <v>202</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K4">
@@ -2463,7 +1589,7 @@
       <c r="D5">
         <v>-108.765196586824</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E13" si="1">SQRT(10201)</f>
         <v>101</v>
       </c>
@@ -2479,7 +1605,7 @@
       <c r="I5">
         <v>202</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K5">
@@ -2501,7 +1627,7 @@
       <c r="D6">
         <v>-108.765196586824</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2517,7 +1643,7 @@
       <c r="I6">
         <v>202</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K6">
@@ -2539,7 +1665,7 @@
       <c r="D7">
         <v>-108.765196586824</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2555,7 +1681,7 @@
       <c r="I7">
         <v>202</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K7">
@@ -2577,7 +1703,7 @@
       <c r="D8">
         <v>-108.765196586824</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2593,7 +1719,7 @@
       <c r="I8">
         <v>202</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K8">
@@ -2615,7 +1741,7 @@
       <c r="D9">
         <v>-108.765196586824</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2631,7 +1757,7 @@
       <c r="I9">
         <v>202</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K9">
@@ -2653,7 +1779,7 @@
       <c r="D10">
         <v>-108.765196586824</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2669,7 +1795,7 @@
       <c r="I10">
         <v>202</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K10">
@@ -2691,7 +1817,7 @@
       <c r="D11">
         <v>-108.765196586824</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2707,7 +1833,7 @@
       <c r="I11">
         <v>202</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K11">
@@ -2729,7 +1855,7 @@
       <c r="D12">
         <v>-108.765196586824</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2745,7 +1871,7 @@
       <c r="I12">
         <v>202</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K12">
@@ -2767,7 +1893,7 @@
       <c r="D13">
         <v>-108.765196586824</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2783,7 +1909,7 @@
       <c r="I13">
         <v>202</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="3">
         <v>-108.79991228764401</v>
       </c>
       <c r="K13">
@@ -2792,8 +1918,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
-        <v>48</v>
+      <c r="A14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B14">
         <f>AVERAGE(B4:B13)</f>
@@ -2837,8 +1963,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
-        <v>49</v>
+      <c r="A15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B15">
         <f>MIN(B4:B13)</f>
@@ -2882,8 +2008,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
-        <v>50</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16">
         <f>MAX(B5:B13)</f>
@@ -2927,61 +2053,61 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
-        <v>25</v>
+      <c r="A21" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24" t="s">
-        <v>20</v>
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>24</v>
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -3275,8 +2401,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
-        <v>48</v>
+      <c r="A34" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B34">
         <f>AVERAGE(B24:B33)</f>
@@ -3320,8 +2446,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
-        <v>49</v>
+      <c r="A35" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B35">
         <f>MIN(B24:B33)</f>
@@ -3365,8 +2491,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="23" t="s">
-        <v>50</v>
+      <c r="A36" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B36">
         <f>MAX(B25:B33)</f>
@@ -3410,89 +2536,93 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>54</v>
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24" t="s">
-        <v>20</v>
+      <c r="A41" s="1"/>
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>24</v>
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -3505,6 +2635,18 @@
       <c r="C43">
         <v>925</v>
       </c>
+      <c r="D43">
+        <v>-108.82222595697699</v>
+      </c>
+      <c r="E43">
+        <v>1357</v>
+      </c>
+      <c r="H43">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I43">
+        <v>1538</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A44">
@@ -3516,7 +2658,19 @@
       <c r="C44">
         <v>915</v>
       </c>
-      <c r="M44" s="26"/>
+      <c r="D44">
+        <v>-108.823212403751</v>
+      </c>
+      <c r="E44">
+        <v>1382</v>
+      </c>
+      <c r="H44">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I44">
+        <v>1538</v>
+      </c>
+      <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A45">
@@ -3528,7 +2682,19 @@
       <c r="C45">
         <v>904</v>
       </c>
-      <c r="M45" s="51"/>
+      <c r="D45">
+        <v>-108.826744834385</v>
+      </c>
+      <c r="E45">
+        <v>1372</v>
+      </c>
+      <c r="H45">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I45">
+        <v>1538</v>
+      </c>
+      <c r="M45" s="22"/>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A46">
@@ -3540,7 +2706,19 @@
       <c r="C46">
         <v>909</v>
       </c>
-      <c r="M46" s="51"/>
+      <c r="D46">
+        <v>-108.824711540579</v>
+      </c>
+      <c r="E46">
+        <v>1349</v>
+      </c>
+      <c r="H46">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I46">
+        <v>1538</v>
+      </c>
+      <c r="M46" s="22"/>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A47">
@@ -3552,7 +2730,19 @@
       <c r="C47">
         <v>900</v>
       </c>
-      <c r="M47" s="51"/>
+      <c r="D47">
+        <v>-108.822477071241</v>
+      </c>
+      <c r="E47">
+        <v>1366</v>
+      </c>
+      <c r="H47">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I47">
+        <v>1538</v>
+      </c>
+      <c r="M47" s="22"/>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A48">
@@ -3564,7 +2754,19 @@
       <c r="C48">
         <v>904</v>
       </c>
-      <c r="M48" s="51"/>
+      <c r="D48">
+        <v>-108.82300079691301</v>
+      </c>
+      <c r="E48">
+        <v>1378</v>
+      </c>
+      <c r="H48">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I48">
+        <v>1538</v>
+      </c>
+      <c r="M48" s="22"/>
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A49">
@@ -3576,7 +2778,19 @@
       <c r="C49">
         <v>900</v>
       </c>
-      <c r="M49" s="51"/>
+      <c r="D49">
+        <v>-108.822947997727</v>
+      </c>
+      <c r="E49">
+        <v>1375</v>
+      </c>
+      <c r="H49">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I49">
+        <v>1538</v>
+      </c>
+      <c r="M49" s="22"/>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A50">
@@ -3588,7 +2802,19 @@
       <c r="C50">
         <v>912</v>
       </c>
-      <c r="M50" s="51"/>
+      <c r="D50">
+        <v>-108.82436688193999</v>
+      </c>
+      <c r="E50">
+        <v>1372</v>
+      </c>
+      <c r="H50">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I50">
+        <v>1538</v>
+      </c>
+      <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A51">
@@ -3600,7 +2826,19 @@
       <c r="C51">
         <v>905</v>
       </c>
-      <c r="M51" s="51"/>
+      <c r="D51">
+        <v>-108.824657871892</v>
+      </c>
+      <c r="E51">
+        <v>1383</v>
+      </c>
+      <c r="H51">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I51">
+        <v>1538</v>
+      </c>
+      <c r="M51" s="22"/>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A52">
@@ -3612,11 +2850,23 @@
       <c r="C52">
         <v>925</v>
       </c>
-      <c r="M52" s="51"/>
+      <c r="D52">
+        <v>-108.825097741953</v>
+      </c>
+      <c r="E52">
+        <v>1353</v>
+      </c>
+      <c r="H52">
+        <v>-109.23647782964601</v>
+      </c>
+      <c r="I52">
+        <v>1538</v>
+      </c>
+      <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A53" s="22" t="s">
-        <v>48</v>
+      <c r="A53" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B53">
         <f>AVERAGE(B43:B52)</f>
@@ -3626,13 +2876,13 @@
         <f t="shared" ref="C53" si="17">AVERAGE(C43:C52)</f>
         <v>909.9</v>
       </c>
-      <c r="D53" t="e">
+      <c r="D53">
         <f t="shared" ref="D53" si="18">AVERAGE(D43:D52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" t="e">
+        <v>-108.82394430973579</v>
+      </c>
+      <c r="E53">
         <f t="shared" ref="E53" si="19">AVERAGE(E43:E52)</f>
-        <v>#DIV/0!</v>
+        <v>1368.7</v>
       </c>
       <c r="F53" t="e">
         <f t="shared" ref="F53" si="20">AVERAGE(F43:F52)</f>
@@ -3642,13 +2892,13 @@
         <f t="shared" ref="G53" si="21">AVERAGE(G43:G52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" t="e">
+      <c r="H53">
         <f t="shared" ref="H53" si="22">AVERAGE(H43:H52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" t="e">
+        <v>-109.23647782964602</v>
+      </c>
+      <c r="I53">
         <f t="shared" ref="I53" si="23">AVERAGE(I43:I52)</f>
-        <v>#DIV/0!</v>
+        <v>1538</v>
       </c>
       <c r="J53" t="e">
         <f t="shared" ref="J53" si="24">AVERAGE(J43:J52)</f>
@@ -3658,11 +2908,11 @@
         <f t="shared" ref="K53" si="25">AVERAGE(K43:K52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M53" s="51"/>
+      <c r="M53" s="22"/>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A54" s="22" t="s">
-        <v>49</v>
+      <c r="A54" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B54">
         <f>MIN(B43:B52)</f>
@@ -3674,11 +2924,11 @@
       </c>
       <c r="D54">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-108.826744834385</v>
       </c>
       <c r="E54">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1349</v>
       </c>
       <c r="F54">
         <f t="shared" si="26"/>
@@ -3690,11 +2940,11 @@
       </c>
       <c r="H54">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-109.23647782964601</v>
       </c>
       <c r="I54">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="J54">
         <f t="shared" si="26"/>
@@ -3704,11 +2954,11 @@
         <f>MIN(K43:K52)</f>
         <v>0</v>
       </c>
-      <c r="M54" s="51"/>
+      <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A55" s="23" t="s">
-        <v>50</v>
+      <c r="A55" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B55">
         <f>MAX(B44:B52)</f>
@@ -3720,11 +2970,11 @@
       </c>
       <c r="D55">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-108.822477071241</v>
       </c>
       <c r="E55">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1383</v>
       </c>
       <c r="F55">
         <f t="shared" si="27"/>
@@ -3736,11 +2986,11 @@
       </c>
       <c r="H55">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-109.23647782964601</v>
       </c>
       <c r="I55">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="J55">
         <f t="shared" si="27"/>
@@ -3750,70 +3000,70 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M55" s="51"/>
+      <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="M56" s="51"/>
+      <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="M57" s="51"/>
+      <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="M58" s="51"/>
+      <c r="M58" s="22"/>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="M59" s="51"/>
+      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="M60" s="51"/>
+      <c r="M60" s="22"/>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="M61" s="51"/>
+      <c r="M61" s="22"/>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="M62" s="51"/>
+      <c r="M62" s="22"/>
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="M63" s="51"/>
+      <c r="M63" s="22"/>
     </row>
     <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="L64" s="51"/>
+      <c r="L64" s="22"/>
     </row>
     <row r="65" spans="12:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="L65" s="51"/>
+      <c r="L65" s="22"/>
     </row>
     <row r="66" spans="12:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="L66" s="51"/>
+      <c r="L66" s="22"/>
     </row>
     <row r="67" spans="12:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="L67" s="51"/>
+      <c r="L67" s="22"/>
     </row>
     <row r="68" spans="12:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="L68" s="51"/>
+      <c r="L68" s="22"/>
     </row>
     <row r="69" spans="12:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="L69" s="51"/>
+      <c r="L69" s="22"/>
     </row>
     <row r="70" spans="12:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="L70" s="51"/>
+      <c r="L70" s="22"/>
     </row>
     <row r="71" spans="12:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="L71" s="51"/>
+      <c r="L71" s="22"/>
     </row>
     <row r="72" spans="12:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="L72" s="51"/>
+      <c r="L72" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FF5C7E-DB4F-7145-BB48-A37F50D48701}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3833,418 +3083,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="30"/>
-    </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.15">
-      <c r="B2" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-    </row>
-    <row r="3" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>42</v>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="A4" s="26"/>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9">
         <v>-109.0839</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="10">
         <v>-109.054478801391</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="9">
         <v>-108.76519999999999</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="10">
         <v>-108.765196586824</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="9">
         <v>-109.2325</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="11">
         <v>-109.19297363473</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="9">
         <v>-108.8182</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="10">
         <v>-108.79991228764401</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="9">
         <v>-115.99809999999999</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="10">
         <v>-115.8000016374</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="A5" s="26"/>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9">
         <v>-109.0929</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="9">
         <v>-109.0943</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="9">
         <v>-108.824</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="9">
         <v>-108.8274</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="12">
         <v>-109.2359</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="9">
         <v>-109.23650000000001</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="10">
         <v>-108.900193963975</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="9">
         <v>-108.901447636678</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="32">
+      <c r="K5" s="12"/>
+      <c r="L5" s="9">
         <v>-116.391890224771</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.15">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" ref="C6:L6" si="0">C4-C5</f>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9821198609004682E-2</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>5.880000000000507E-2</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>6.2203413175993205E-2</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3999999999991815E-3</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>4.3526365270011524E-2</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>8.1993963974994699E-2</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10153534903399475</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="0"/>
+        <v>-115.99809999999999</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.59188858737100247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="B8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.15">
+      <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="33">
-        <f>C4-C5</f>
-        <v>9.0000000000003411E-3</v>
-      </c>
-      <c r="D6" s="33">
-        <f>D4-D5</f>
-        <v>3.9821198609004682E-2</v>
-      </c>
-      <c r="E6" s="33">
-        <f>E4-E5</f>
-        <v>5.880000000000507E-2</v>
-      </c>
-      <c r="F6" s="33">
-        <f>F4-F5</f>
-        <v>6.2203413175993205E-2</v>
-      </c>
-      <c r="G6" s="33">
-        <f>G4-G5</f>
-        <v>3.3999999999991815E-3</v>
-      </c>
-      <c r="H6" s="33">
-        <f>H4-H5</f>
-        <v>4.3526365270011524E-2</v>
-      </c>
-      <c r="I6" s="33">
-        <f>I4-I5</f>
-        <v>8.1993963974994699E-2</v>
-      </c>
-      <c r="J6" s="33">
-        <f>J4-J5</f>
-        <v>0.10153534903399475</v>
-      </c>
-      <c r="K6" s="33">
-        <f>K4-K5</f>
-        <v>-115.99809999999999</v>
-      </c>
-      <c r="L6" s="33">
-        <f>L4-L5</f>
-        <v>0.59188858737100247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="B7" s="28"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="B8" s="28"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.15">
-      <c r="B9" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.15">
-      <c r="B10" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.15">
-      <c r="B11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.15">
-      <c r="B12" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48">
+      <c r="C12" s="18">
+        <v>277</v>
+      </c>
+      <c r="D12" s="19">
         <v>109</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48">
+      <c r="E12" s="18">
+        <v>242</v>
+      </c>
+      <c r="F12" s="19">
         <v>101</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="49">
+      <c r="G12" s="18">
+        <v>730</v>
+      </c>
+      <c r="H12" s="20">
         <v>202</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48">
+      <c r="I12" s="18">
+        <v>296</v>
+      </c>
+      <c r="J12" s="19">
         <v>252</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48">
+      <c r="K12" s="18">
+        <v>929</v>
+      </c>
+      <c r="L12" s="19">
         <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.15">
-      <c r="B13" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="47">
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="18">
         <v>976</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47">
+      <c r="D13" s="18">
+        <v>925</v>
+      </c>
+      <c r="E13" s="18">
         <v>1395</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="50">
+      <c r="F13" s="18">
+        <v>1372</v>
+      </c>
+      <c r="G13" s="21">
         <v>1884</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48">
+      <c r="H13" s="18">
+        <v>1538</v>
+      </c>
+      <c r="I13" s="19">
         <v>2136</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="47"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="B16" s="28"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="G1:J1"/>
@@ -4256,13 +3517,18 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF8EEA8-640C-FD40-83A7-5AB64B199225}">
   <dimension ref="A1:P7"/>
   <sheetViews>
@@ -4286,306 +3552,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="J2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="10">
+        <v>-109.09813082003301</v>
+      </c>
+      <c r="D3" s="13">
+        <v>-108.842683477278</v>
+      </c>
+      <c r="E3" s="10">
+        <v>-109.263243833864</v>
+      </c>
+      <c r="F3" s="14">
+        <v>-108.9599348916059</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-116.6056091</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="10">
+        <v>-109.09813082003301</v>
+      </c>
+      <c r="M3" s="13">
+        <v>-108.842683477278</v>
+      </c>
+      <c r="N3" s="10">
+        <v>-109.263243833864</v>
+      </c>
+      <c r="O3" s="14">
+        <v>-108.9599348916059</v>
+      </c>
+      <c r="P3" s="10">
+        <v>-116.6056091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="38" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-108.943862504089</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-108.677515318486</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-109.06721118367901</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-108.774586965086</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-114.76342723370701</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="28" t="s">
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="J2" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="33">
-        <v>-109.09813082003301</v>
-      </c>
-      <c r="D3" s="36">
-        <v>-108.842683477278</v>
-      </c>
-      <c r="E3" s="33">
-        <v>-109.263243833864</v>
-      </c>
-      <c r="F3" s="37">
-        <v>-108.9599348916059</v>
-      </c>
-      <c r="G3" s="33">
-        <v>-116.6056091</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="33">
-        <v>-109.09813082003301</v>
-      </c>
-      <c r="M3" s="36">
-        <v>-108.842683477278</v>
-      </c>
-      <c r="N3" s="33">
-        <v>-109.263243833864</v>
-      </c>
-      <c r="O3" s="37">
-        <v>-108.9599348916059</v>
-      </c>
-      <c r="P3" s="33">
-        <v>-116.6056091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="38" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="33">
-        <v>-108.943862504089</v>
-      </c>
-      <c r="D4" s="33">
-        <v>-108.677515318486</v>
-      </c>
-      <c r="E4" s="33">
-        <v>-109.06721118367901</v>
-      </c>
-      <c r="F4" s="33">
-        <v>-108.774586965086</v>
-      </c>
-      <c r="G4" s="33">
-        <v>-114.76342723370701</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="33">
+      <c r="L4" s="10">
         <f>C4-C3</f>
         <v>0.1542683159440088</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="10">
         <f t="shared" ref="M4:P4" si="0">D4-D3</f>
         <v>0.16516815879199953</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="10">
         <f t="shared" si="0"/>
         <v>0.19603265018498917</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="10">
         <f t="shared" si="0"/>
         <v>0.18534792651989562</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="10">
         <f t="shared" si="0"/>
         <v>1.8421818662929894</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="38" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
-      <c r="B5" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
         <v>-109.0839</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="9">
         <v>-108.76519999999999</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="9">
         <v>-109.2325</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="9">
         <v>-108.8182</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="9">
         <v>-115.99809999999999</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="32">
+      <c r="J5" s="27"/>
+      <c r="K5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="9">
         <f>C5-C3</f>
         <v>1.4230820033006353E-2</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="9">
         <f t="shared" ref="M5:P5" si="1">D5-D3</f>
         <v>7.7483477278008195E-2</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="9">
         <f t="shared" si="1"/>
         <v>3.0743833863994041E-2</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="9">
         <f t="shared" si="1"/>
         <v>0.1417348916058927</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="9">
         <f t="shared" si="1"/>
         <v>0.60750910000000147</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="A6" s="16"/>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
         <v>-109.0929</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="9">
         <v>-108.824</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="12">
         <v>-109.2359</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="10">
         <v>-108.900193963975</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="32">
+      <c r="G6" s="12"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="9">
         <f>C6-C3</f>
         <v>5.2308200330060117E-3</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="9">
         <f t="shared" ref="M6:P6" si="2">D6-D3</f>
         <v>1.8683477278003124E-2</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="9">
         <f t="shared" si="2"/>
         <v>2.734383386399486E-2</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="9">
         <f t="shared" si="2"/>
         <v>5.9740927630898E-2</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="9">
         <f t="shared" si="2"/>
         <v>116.6056091</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10">
         <f>C5-C6</f>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="10">
         <f>D5-D6</f>
         <v>5.880000000000507E-2</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="10">
         <f>E5-E6</f>
         <v>3.3999999999991815E-3</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="10">
         <f>F5-F6</f>
         <v>8.1993963974994699E-2</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="10">
         <f>G5-G6</f>
         <v>-115.99809999999999</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="33">
+      <c r="J7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="10">
         <f>L4/L6</f>
         <v>29.492185731986453</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="10">
         <f t="shared" ref="M7:P7" si="3">M4/M6</f>
         <v>8.8403328959785892</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="10">
         <f t="shared" si="3"/>
         <v>7.1691720758703195</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="10">
         <f t="shared" si="3"/>
         <v>3.1025284318490178</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="10">
         <f t="shared" si="3"/>
         <v>1.5798398383332912E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
@@ -4595,6 +3856,11 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/improvement_quimb.xlsx
+++ b/csv/improvement_quimb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanhsuanlin/Desktop/sqd/meeting-notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17A4E8-1E65-BB4C-912F-FE82E5CD3FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F380723-7B3B-3043-A0C0-315A751E368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32920" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,10 +325,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D3157-8E17-0641-B9E7-515D072A5E18}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1476,12 +1476,12 @@
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1764,8 +1764,9 @@
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1802,8 +1803,9 @@
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1840,8 +1842,9 @@
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1878,8 +1881,9 @@
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1916,8 +1920,9 @@
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1961,8 +1966,9 @@
         <f t="shared" ref="K14" si="11">AVERAGE(K4:K13)</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2006,8 +2012,9 @@
         <f>MIN(K4:K13)</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -2051,13 +2058,27 @@
         <f t="shared" si="13"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -2078,8 +2099,9 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -2109,8 +2131,9 @@
       <c r="K23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2138,8 +2161,9 @@
       <c r="K24">
         <v>2087</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2167,8 +2191,9 @@
       <c r="K25">
         <v>2068</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2196,8 +2221,9 @@
       <c r="K26">
         <v>2123</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2225,8 +2251,9 @@
       <c r="K27">
         <v>2088</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -2254,8 +2281,9 @@
       <c r="K28">
         <v>2059</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2284,7 +2312,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>7</v>
       </c>
@@ -2313,7 +2341,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>8</v>
       </c>
@@ -2342,7 +2370,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>9</v>
       </c>
@@ -2647,6 +2675,12 @@
       <c r="I43">
         <v>1538</v>
       </c>
+      <c r="J43">
+        <v>-108.895430631724</v>
+      </c>
+      <c r="K43">
+        <v>1981</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A44">
@@ -2670,6 +2704,12 @@
       <c r="I44">
         <v>1538</v>
       </c>
+      <c r="J44">
+        <v>-108.896618758567</v>
+      </c>
+      <c r="K44">
+        <v>2015</v>
+      </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -2694,6 +2734,12 @@
       <c r="I45">
         <v>1538</v>
       </c>
+      <c r="J45">
+        <v>-108.894636260459</v>
+      </c>
+      <c r="K45">
+        <v>2003</v>
+      </c>
       <c r="M45" s="22"/>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -2718,6 +2764,12 @@
       <c r="I46">
         <v>1538</v>
       </c>
+      <c r="J46">
+        <v>-108.89634449982999</v>
+      </c>
+      <c r="K46">
+        <v>2030</v>
+      </c>
       <c r="M46" s="22"/>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -2742,6 +2794,12 @@
       <c r="I47">
         <v>1538</v>
       </c>
+      <c r="J47">
+        <v>-108.88923394230299</v>
+      </c>
+      <c r="K47">
+        <v>1980</v>
+      </c>
       <c r="M47" s="22"/>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -2766,6 +2824,12 @@
       <c r="I48">
         <v>1538</v>
       </c>
+      <c r="J48">
+        <v>-108.894075717576</v>
+      </c>
+      <c r="K48">
+        <v>1999</v>
+      </c>
       <c r="M48" s="22"/>
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -2790,6 +2854,12 @@
       <c r="I49">
         <v>1538</v>
       </c>
+      <c r="J49">
+        <v>-108.89589194315</v>
+      </c>
+      <c r="K49">
+        <v>1993</v>
+      </c>
       <c r="M49" s="22"/>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -2814,6 +2884,12 @@
       <c r="I50">
         <v>1538</v>
       </c>
+      <c r="J50">
+        <v>-108.89293338206799</v>
+      </c>
+      <c r="K50">
+        <v>2011</v>
+      </c>
       <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -2838,6 +2914,12 @@
       <c r="I51">
         <v>1538</v>
       </c>
+      <c r="J51">
+        <v>-108.902532323945</v>
+      </c>
+      <c r="K51">
+        <v>1993</v>
+      </c>
       <c r="M51" s="22"/>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -2862,6 +2944,12 @@
       <c r="I52">
         <v>1538</v>
       </c>
+      <c r="J52">
+        <v>-108.891571017836</v>
+      </c>
+      <c r="K52">
+        <v>1982</v>
+      </c>
       <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -2900,13 +2988,13 @@
         <f t="shared" ref="I53" si="23">AVERAGE(I43:I52)</f>
         <v>1538</v>
       </c>
-      <c r="J53" t="e">
+      <c r="J53">
         <f t="shared" ref="J53" si="24">AVERAGE(J43:J52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" t="e">
+        <v>-108.89492684774579</v>
+      </c>
+      <c r="K53">
         <f t="shared" ref="K53" si="25">AVERAGE(K43:K52)</f>
-        <v>#DIV/0!</v>
+        <v>1998.7</v>
       </c>
       <c r="M53" s="22"/>
     </row>
@@ -2948,11 +3036,11 @@
       </c>
       <c r="J54">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-108.902532323945</v>
       </c>
       <c r="K54">
         <f>MIN(K43:K52)</f>
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="M54" s="22"/>
     </row>
@@ -2994,11 +3082,11 @@
       </c>
       <c r="J55">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-108.88923394230299</v>
       </c>
       <c r="K55">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="M55" s="22"/>
     </row>
@@ -3098,33 +3186,33 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="15" t="s">
@@ -3316,33 +3404,33 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.15">
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.15">
       <c r="B11" s="15" t="s">
@@ -3493,8 +3581,8 @@
       <c r="K17" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="10"/>
       <c r="D20" s="13"/>
       <c r="E20" s="10"/>
@@ -3564,7 +3652,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="26"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="26" t="s">
@@ -3579,15 +3667,15 @@
         <v>10</v>
       </c>
       <c r="O1" s="26"/>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
@@ -3600,11 +3688,11 @@
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="J2" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="J2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
@@ -3617,13 +3705,13 @@
       <c r="O2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="24"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="10">
         <v>-109.09813082003301</v>
       </c>
@@ -3639,10 +3727,10 @@
       <c r="G3" s="10">
         <v>-116.6056091</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="10">
         <v>-109.09813082003301</v>
       </c>
@@ -3820,10 +3908,10 @@
         <f>G5-G6</f>
         <v>-115.99809999999999</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="10">
         <f>L4/L6</f>
         <v>29.492185731986453</v>
@@ -3847,6 +3935,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
@@ -3856,11 +3949,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/improvement_quimb.xlsx
+++ b/csv/improvement_quimb.xlsx
@@ -269,8 +269,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,1674 +631,1674 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>-115.80001637483</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>-109.19297363473</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>-115.800016374957</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>-109.192973634742</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>-115.800016374867</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>-109.192973634743</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>-115.800016374961</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>-109.192973634744</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>-115.800016374871</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>-109.192973634746</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>-115.800016374993</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>-109.19297363476</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>-115.800016374863</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>-109.192973634746</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>-115.800016374925</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>-109.192973634745</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>-115.800016374811</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>-109.192973634745</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false">SQRT(11881)</f>
         <v>109</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <f aca="false">SQRT(10201)</f>
         <v>101</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>-115.800016374709</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>-109.192973634744</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="3" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <f aca="false">SQRT(63504)</f>
         <v>252</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <f aca="false">AVERAGE(B4:B13)</f>
         <v>-109.054478801391</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">AVERAGE(C4:C13)</f>
         <v>109</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false">AVERAGE(D4:D13)</f>
         <v>-108.765196586824</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <f aca="false">AVERAGE(E4:E13)</f>
         <v>101</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">AVERAGE(F4:F13)</f>
         <v>-115.800016374879</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <f aca="false">AVERAGE(G4:G13)</f>
         <v>543</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <f aca="false">AVERAGE(H4:H13)</f>
         <v>-109.192973634745</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <f aca="false">AVERAGE(I4:I13)</f>
         <v>202</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <f aca="false">AVERAGE(J4:J13)</f>
         <v>-108.799912287644</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false">AVERAGE(K4:K13)</f>
         <v>252</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <f aca="false">MIN(B4:B13)</f>
         <v>-109.054478801391</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false">MIN(C4:C13)</f>
         <v>109</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <f aca="false">MIN(D4:D13)</f>
         <v>-108.765196586824</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <f aca="false">MIN(E4:E13)</f>
         <v>101</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">MIN(F4:F13)</f>
         <v>-115.800016374993</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <f aca="false">MIN(G4:G13)</f>
         <v>543</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <f aca="false">MIN(H4:H13)</f>
         <v>-109.19297363476</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <f aca="false">MIN(I4:I13)</f>
         <v>202</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <f aca="false">MIN(J4:J13)</f>
         <v>-108.799912287644</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <f aca="false">MIN(K4:K13)</f>
         <v>252</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <f aca="false">MAX(B5:B13)</f>
         <v>-109.054478801391</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false">MAX(C5:C13)</f>
         <v>109</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <f aca="false">MAX(D5:D13)</f>
         <v>-108.765196586824</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <f aca="false">MAX(E5:E13)</f>
         <v>101</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <f aca="false">MAX(F5:F13)</f>
         <v>-115.800016374709</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <f aca="false">MAX(G5:G13)</f>
         <v>543</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <f aca="false">MAX(H5:H13)</f>
         <v>-109.192973634742</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <f aca="false">MAX(I5:I13)</f>
         <v>202</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <f aca="false">MAX(J5:J13)</f>
         <v>-108.799912287644</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <f aca="false">MAX(K5:K13)</f>
         <v>252</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M17" s="4"/>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M18" s="4"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M19" s="4"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M20" s="4"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>-109.091190683961</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>975</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>-108.817923076546</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>1375</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>-109.232120428781</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <v>1860</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <v>-108.899340296587</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <v>2087</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>-109.091154920614</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>967</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>-108.821428670229</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>1359</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>-109.232302921486</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <v>1850</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <v>-108.896383922854</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <v>2068</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>-109.092875542413</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>976</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>-108.820981542702</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>1409</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>-109.231181237839</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <v>1886</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <v>-108.898908524635</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <v>2123</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>-109.09171943844</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>971</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>-108.822267046009</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>1388</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>-109.235892128729</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="1" t="n">
         <v>1884</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <v>-108.894294751882</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <v>2088</v>
       </c>
-      <c r="M27" s="4"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>-109.092183637173</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>991</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>-108.822405244408</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>1378</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>-109.228459231772</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <v>1842</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <v>-108.900193963975</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="1" t="n">
         <v>2059</v>
       </c>
-      <c r="M28" s="4"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>-109.091585471414</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>-108.824049763949</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>1395</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>-109.23023134429</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="1" t="n">
         <v>1874</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <v>-108.897791096551</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="1" t="n">
         <v>2068</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>-109.092657781905</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>981</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>-108.820402605524</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>1396</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <v>-109.233443053169</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="1" t="n">
         <v>1830</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="1" t="n">
         <v>-108.900018850921</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="1" t="n">
         <v>2136</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>-109.09272828069</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>968</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>-108.82321862426</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>1381</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>-109.233511420033</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="1" t="n">
         <v>1838</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="1" t="n">
         <v>-108.896734693056</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="1" t="n">
         <v>2055</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>-109.092774453451</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>1011</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>-108.823797797555</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>1439</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="1" t="n">
         <v>-109.230489257124</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="1" t="n">
         <v>1886</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="1" t="n">
         <v>-108.895779574736</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="1" t="n">
         <v>2113</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>-109.092023836705</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>989</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>-108.82285991863</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>1409</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="1" t="n">
         <v>-109.230679934058</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="1" t="n">
         <v>1860</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="1" t="n">
         <v>-108.895325258506</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="1" t="n">
         <v>2084</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <f aca="false">AVERAGE(B24:B33)</f>
         <v>-109.092089404677</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <f aca="false">AVERAGE(C24:C33)</f>
         <v>983.2</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <f aca="false">AVERAGE(D24:D33)</f>
         <v>-108.821933428981</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <f aca="false">AVERAGE(E24:E33)</f>
         <v>1392.9</v>
       </c>
-      <c r="F34" s="0" t="e">
+      <c r="F34" s="1" t="e">
         <f aca="false">AVERAGE(F24:F33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="0" t="e">
+      <c r="G34" s="1" t="e">
         <f aca="false">AVERAGE(G24:G33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <f aca="false">AVERAGE(H24:H33)</f>
         <v>-109.231831095728</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="1" t="n">
         <f aca="false">AVERAGE(I24:I33)</f>
         <v>1861</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="1" t="n">
         <f aca="false">AVERAGE(J24:J33)</f>
         <v>-108.89747709337</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="1" t="n">
         <f aca="false">AVERAGE(K24:K33)</f>
         <v>2088.1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <f aca="false">MIN(B24:B33)</f>
         <v>-109.092875542413</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <f aca="false">MIN(C24:C33)</f>
         <v>967</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <f aca="false">MIN(D24:D33)</f>
         <v>-108.824049763949</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <f aca="false">MIN(E24:E33)</f>
         <v>1359</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <f aca="false">MIN(F24:F33)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
         <f aca="false">MIN(G24:G33)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <f aca="false">MIN(H24:H33)</f>
         <v>-109.235892128729</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="1" t="n">
         <f aca="false">MIN(I24:I33)</f>
         <v>1830</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="1" t="n">
         <f aca="false">MIN(J24:J33)</f>
         <v>-108.900193963975</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="1" t="n">
         <f aca="false">MIN(K24:K33)</f>
         <v>2055</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <f aca="false">MAX(B25:B33)</f>
         <v>-109.091154920614</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <f aca="false">MAX(C25:C33)</f>
         <v>1011</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <f aca="false">MAX(D25:D33)</f>
         <v>-108.820402605524</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <f aca="false">MAX(E25:E33)</f>
         <v>1439</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <f aca="false">MAX(F25:F33)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="1" t="n">
         <f aca="false">MAX(G25:G33)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <f aca="false">MAX(H25:H33)</f>
         <v>-109.228459231772</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="1" t="n">
         <f aca="false">MAX(I25:I33)</f>
         <v>1886</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="1" t="n">
         <f aca="false">MAX(J25:J33)</f>
         <v>-108.894294751882</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="1" t="n">
         <f aca="false">MAX(K25:K33)</f>
         <v>2136</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="1" t="s">
+      <c r="G41" s="3"/>
+      <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2" t="s">
+      <c r="I41" s="2"/>
+      <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>-109.093959983766</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>925</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>-108.822225956977</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>1357</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="1" t="n">
         <v>-108.895430631724</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="1" t="n">
         <v>1981</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>-109.091835173699</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>915</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>-108.823212403751</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>1382</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="1" t="n">
         <v>-108.896618758567</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="M44" s="4"/>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>-109.092917249763</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>904</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>-108.826744834385</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>1372</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="1" t="n">
         <v>-108.894636260459</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="M45" s="6"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>-109.093204583828</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>909</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>-108.824711540579</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>1349</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="1" t="n">
         <v>-108.89634449983</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="M46" s="6"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>-109.092002051358</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>-108.822477071241</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>1366</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="1" t="n">
         <v>-108.889233942303</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="M47" s="6"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>-109.092147556161</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>904</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>-108.823000796913</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>1378</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="1" t="n">
         <v>-108.894075717576</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="M48" s="6"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>-109.092855206169</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>-108.822947997727</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>1375</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J49" s="1" t="n">
         <v>-108.89589194315</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="M49" s="6"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>-109.09216294333</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>912</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>-108.82436688194</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>1372</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50" s="1" t="n">
         <v>-108.892933382068</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="M50" s="6"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>-109.092681575454</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>905</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>-108.824657871892</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>1383</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I51" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51" s="1" t="n">
         <v>-108.902532323945</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="M51" s="6"/>
+      <c r="M51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>-109.091487691736</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>925</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>-108.825097741953</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>1353</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="1" t="n">
         <v>-109.236477829646</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="1" t="n">
         <v>-108.891571017836</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="M52" s="6"/>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <f aca="false">AVERAGE(B43:B52)</f>
         <v>-109.092525401526</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <f aca="false">AVERAGE(C43:C52)</f>
         <v>909.9</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <f aca="false">AVERAGE(D43:D52)</f>
         <v>-108.823944309736</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <f aca="false">AVERAGE(E43:E52)</f>
         <v>1368.7</v>
       </c>
-      <c r="F53" s="0" t="e">
+      <c r="F53" s="1" t="e">
         <f aca="false">AVERAGE(F43:F52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G53" s="0" t="e">
+      <c r="G53" s="1" t="e">
         <f aca="false">AVERAGE(G43:G52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53" s="1" t="n">
         <f aca="false">AVERAGE(H43:H52)</f>
         <v>-109.236477829646</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53" s="1" t="n">
         <f aca="false">AVERAGE(I43:I52)</f>
         <v>1538</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="1" t="n">
         <f aca="false">AVERAGE(J43:J52)</f>
         <v>-108.894926847746</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="1" t="n">
         <f aca="false">AVERAGE(K43:K52)</f>
         <v>1998.7</v>
       </c>
-      <c r="M53" s="6"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <f aca="false">MIN(B43:B52)</f>
         <v>-109.093959983766</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <f aca="false">MIN(C43:C52)</f>
         <v>900</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <f aca="false">MIN(D43:D52)</f>
         <v>-108.826744834385</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <f aca="false">MIN(E43:E52)</f>
         <v>1349</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <f aca="false">MIN(F43:F52)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54" s="1" t="n">
         <f aca="false">MIN(G43:G52)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54" s="1" t="n">
         <f aca="false">MIN(H43:H52)</f>
         <v>-109.236477829646</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="I54" s="1" t="n">
         <f aca="false">MIN(I43:I52)</f>
         <v>1538</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54" s="1" t="n">
         <f aca="false">MIN(J43:J52)</f>
         <v>-108.902532323945</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54" s="1" t="n">
         <f aca="false">MIN(K43:K52)</f>
         <v>1980</v>
       </c>
-      <c r="M54" s="6"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <f aca="false">MAX(B44:B52)</f>
         <v>-109.091487691736</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <f aca="false">MAX(C44:C52)</f>
         <v>925</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <f aca="false">MAX(D44:D52)</f>
         <v>-108.822477071241</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <f aca="false">MAX(E44:E52)</f>
         <v>1383</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <f aca="false">MAX(F44:F52)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55" s="1" t="n">
         <f aca="false">MAX(G44:G52)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55" s="1" t="n">
         <f aca="false">MAX(H44:H52)</f>
         <v>-109.236477829646</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="I55" s="1" t="n">
         <f aca="false">MAX(I44:I52)</f>
         <v>1538</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="J55" s="1" t="n">
         <f aca="false">MAX(J44:J52)</f>
         <v>-108.889233942303</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="K55" s="1" t="n">
         <f aca="false">MAX(K44:K52)</f>
         <v>2030</v>
       </c>
-      <c r="M55" s="6"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M56" s="6"/>
+      <c r="M56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M57" s="6"/>
+      <c r="M57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M58" s="6"/>
+      <c r="M58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M59" s="6"/>
+      <c r="M59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M60" s="6"/>
+      <c r="M60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M61" s="6"/>
+      <c r="M61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M62" s="6"/>
+      <c r="M62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M63" s="6"/>
+      <c r="M63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L64" s="6"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L65" s="6"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L66" s="6"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L67" s="6"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L68" s="6"/>
+      <c r="L68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L69" s="6"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L70" s="6"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L71" s="6"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L72" s="6"/>
+      <c r="L72" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2315,438 +2319,438 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="13" t="n">
         <v>-109.0839</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <v>-109.054478801391</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="13" t="n">
         <v>-108.7652</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="11" t="n">
         <v>-108.765196586824</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="13" t="n">
         <v>-109.2325</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="14" t="n">
         <v>-109.19297363473</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="13" t="n">
         <v>-108.8182</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="11" t="n">
         <v>-108.799912287644</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="13" t="n">
         <v>-115.9981</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L4" s="11" t="n">
         <v>-115.8000016374</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="13" t="n">
         <v>-109.0929</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="13" t="n">
         <v>-109.0943</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="13" t="n">
         <v>-108.824</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="13" t="n">
         <v>-108.8274</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="15" t="n">
         <v>-109.2359</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="13" t="n">
         <v>-109.2365</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="11" t="n">
         <v>-108.900193963975</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="13" t="n">
         <v>-108.901447636678</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="12" t="n">
+      <c r="K5" s="15"/>
+      <c r="L5" s="13" t="n">
         <v>-116.391890224771</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="11" t="n">
         <f aca="false">C4-C5</f>
         <v>0.00900000000000034</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="11" t="n">
         <f aca="false">D4-D5</f>
         <v>0.0398211986090047</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="11" t="n">
         <f aca="false">E4-E5</f>
         <v>0.0588000000000051</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="11" t="n">
         <f aca="false">F4-F5</f>
         <v>0.0622034131759932</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="11" t="n">
         <f aca="false">G4-G5</f>
         <v>0.00339999999999918</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="11" t="n">
         <f aca="false">H4-H5</f>
         <v>0.0435263652700115</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="11" t="n">
         <f aca="false">I4-I5</f>
         <v>0.0819939639749947</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="11" t="n">
         <f aca="false">J4-J5</f>
         <v>0.101535349033995</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="11" t="n">
         <f aca="false">K4-K5</f>
         <v>-115.9981</v>
       </c>
-      <c r="L6" s="10" t="n">
+      <c r="L6" s="11" t="n">
         <f aca="false">L4-L5</f>
         <v>0.591888587371003</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="16" t="n">
         <v>277</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="17" t="n">
         <v>109</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="16" t="n">
         <v>242</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="17" t="n">
         <v>101</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="16" t="n">
         <v>730</v>
       </c>
-      <c r="H12" s="17" t="n">
+      <c r="H12" s="18" t="n">
         <v>202</v>
       </c>
-      <c r="I12" s="15" t="n">
+      <c r="I12" s="16" t="n">
         <v>296</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="17" t="n">
         <v>252</v>
       </c>
-      <c r="K12" s="15" t="n">
+      <c r="K12" s="16" t="n">
         <v>929</v>
       </c>
-      <c r="L12" s="16" t="n">
+      <c r="L12" s="17" t="n">
         <v>543</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="16" t="n">
         <v>976</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="16" t="n">
         <v>925</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="16" t="n">
         <v>1395</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="16" t="n">
         <v>1372</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="19" t="n">
         <v>1884</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="16" t="n">
         <v>1538</v>
       </c>
-      <c r="I13" s="16" t="n">
+      <c r="I13" s="17" t="n">
         <v>2136</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2785,316 +2789,315 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="G2" s="9"/>
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="n">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="n">
         <v>-109.098130820033</v>
       </c>
-      <c r="D3" s="20" t="n">
+      <c r="D3" s="21" t="n">
         <v>-108.842683477278</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>-109.263243833864</v>
-      </c>
-      <c r="F3" s="21" t="n">
-        <v>-108.959934891606</v>
-      </c>
-      <c r="G3" s="10" t="n">
+      <c r="E3" s="11" t="n">
+        <v>-109.264753988491</v>
+      </c>
+      <c r="F3" s="22" t="n">
+        <v>-108.962228138586</v>
+      </c>
+      <c r="G3" s="11" t="n">
         <v>-116.6056091</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10" t="n">
+      <c r="K3" s="10"/>
+      <c r="L3" s="11" t="n">
         <v>-109.098130820033</v>
       </c>
-      <c r="M3" s="20" t="n">
+      <c r="M3" s="21" t="n">
         <v>-108.842683477278</v>
       </c>
-      <c r="N3" s="10" t="n">
-        <v>-109.263243833864</v>
-      </c>
-      <c r="O3" s="21" t="n">
-        <v>-108.959934891606</v>
-      </c>
-      <c r="P3" s="10" t="n">
+      <c r="N3" s="11" t="n">
+        <v>-109.264753988491</v>
+      </c>
+      <c r="O3" s="22" t="n">
+        <v>-108.962228138586</v>
+      </c>
+      <c r="P3" s="11" t="n">
         <v>-116.6056091</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="11" t="n">
         <v>-108.943862504089</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <v>-108.677515318486</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="11" t="n">
         <v>-109.067211183679</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="11" t="n">
         <v>-108.774586965086</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="11" t="n">
         <v>-114.763427233707</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L4" s="11" t="n">
         <f aca="false">C4-C3</f>
         <v>0.154268315944009</v>
       </c>
-      <c r="M4" s="10" t="n">
+      <c r="M4" s="11" t="n">
         <f aca="false">D4-D3</f>
         <v>0.165168158792</v>
       </c>
-      <c r="N4" s="10" t="n">
+      <c r="N4" s="11" t="n">
         <f aca="false">E4-E3</f>
-        <v>0.196032650184989</v>
-      </c>
-      <c r="O4" s="10" t="n">
+        <v>0.197542804811988</v>
+      </c>
+      <c r="O4" s="11" t="n">
         <f aca="false">F4-F3</f>
-        <v>0.185347926519896</v>
-      </c>
-      <c r="P4" s="10" t="n">
+        <v>0.187641173499998</v>
+      </c>
+      <c r="P4" s="11" t="n">
         <f aca="false">G4-G3</f>
         <v>1.84218186629299</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23"/>
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="13" t="n">
         <v>-109.0839</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="13" t="n">
         <v>-108.7652</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="13" t="n">
         <v>-109.2325</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="13" t="n">
         <v>-108.8182</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="13" t="n">
         <v>-115.9981</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="13" t="n">
         <f aca="false">C5-C3</f>
         <v>0.0142308200330064</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="13" t="n">
         <f aca="false">D5-D3</f>
         <v>0.0774834772780082</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="13" t="n">
         <f aca="false">E5-E3</f>
-        <v>0.030743833863994</v>
-      </c>
-      <c r="O5" s="12" t="n">
+        <v>0.0322539884909929</v>
+      </c>
+      <c r="O5" s="13" t="n">
         <f aca="false">F5-F3</f>
-        <v>0.141734891605893</v>
-      </c>
-      <c r="P5" s="12" t="n">
+        <v>0.144028138585995</v>
+      </c>
+      <c r="P5" s="13" t="n">
         <f aca="false">G5-G3</f>
         <v>0.607509100000002</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23"/>
+      <c r="B6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="13" t="n">
         <v>-109.0929</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="13" t="n">
         <v>-108.824</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="15" t="n">
         <v>-109.2359</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="11" t="n">
         <v>-108.900193963975</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="15" t="n">
         <v>-116.356665956242</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <f aca="false">C6-C3</f>
         <v>0.00523082003300601</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <f aca="false">D6-D3</f>
         <v>0.0186834772780031</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <f aca="false">E6-E3</f>
-        <v>0.0273438338639949</v>
-      </c>
-      <c r="O6" s="12" t="n">
+        <v>0.0288539884909937</v>
+      </c>
+      <c r="O6" s="13" t="n">
         <f aca="false">F6-F3</f>
-        <v>0.059740927630898</v>
-      </c>
-      <c r="P6" s="12" t="n">
+        <v>0.062034174611</v>
+      </c>
+      <c r="P6" s="13" t="n">
         <f aca="false">G6-G3</f>
         <v>0.248943143757643</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="11" t="n">
         <f aca="false">C5-C6</f>
         <v>0.00900000000000034</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="11" t="n">
         <f aca="false">D5-D6</f>
         <v>0.0588000000000051</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="11" t="n">
         <f aca="false">E5-E6</f>
         <v>0.00339999999999918</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="11" t="n">
         <f aca="false">F5-F6</f>
         <v>0.0819939639749947</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="11" t="n">
         <f aca="false">G5-G6</f>
         <v>0.358565956242359</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="10" t="n">
+      <c r="K7" s="9"/>
+      <c r="L7" s="11" t="n">
         <f aca="false">L4/L6</f>
         <v>29.4921857319865</v>
       </c>
-      <c r="M7" s="10" t="n">
+      <c r="M7" s="11" t="n">
         <f aca="false">M4/M6</f>
         <v>8.84033289597859</v>
       </c>
-      <c r="N7" s="10" t="n">
+      <c r="N7" s="11" t="n">
         <f aca="false">N4/N6</f>
-        <v>7.16917207587032</v>
-      </c>
-      <c r="O7" s="10" t="n">
+        <v>6.84629110716002</v>
+      </c>
+      <c r="O7" s="11" t="n">
         <f aca="false">O4/O6</f>
-        <v>3.10252843184902</v>
-      </c>
-      <c r="P7" s="10" t="n">
+        <v>3.02480325847238</v>
+      </c>
+      <c r="P7" s="11" t="n">
         <f aca="false">P4/P6</f>
         <v>7.40001045413982</v>
       </c>
